--- a/Data/NS_Cachdeu_Sin.xlsx
+++ b/Data/NS_Cachdeu_Sin.xlsx
@@ -132,10 +132,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -179,6 +179,22 @@
         <f aca="false">A2*A2*A2*A2</f>
         <v>50625</v>
       </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">B3-B2</f>
+        <v>0.0832</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">F3-F2</f>
+        <v>-0.00259999999999999</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">(B3-B2)/(A3-A2)</f>
+        <v>0.01664</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">(H3-H2)/(A4-A2)</f>
+        <v>-5.19999999999996E-005</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -200,6 +216,22 @@
         <f aca="false">A3*A3*A3*A3</f>
         <v>160000</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">B4-B3</f>
+        <v>0.0806</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">F4-F3</f>
+        <v>-0.00320000000000004</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">(B4-B3)/(A4-A3)</f>
+        <v>0.01612</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">(H4-H3)/(A5-A3)</f>
+        <v>-6.40000000000009E-005</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -221,6 +253,22 @@
         <f aca="false">A4*A4*A4*A4</f>
         <v>390625</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">B5-B4</f>
+        <v>0.0774</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">F5-F4</f>
+        <v>-0.00379999999999997</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">(B5-B4)/(A5-A4)</f>
+        <v>0.01548</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">(H5-H4)/(A6-A4)</f>
+        <v>-7.59999999999993E-005</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -242,6 +290,22 @@
         <f aca="false">A5*A5*A5*A5</f>
         <v>810000</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">B6-B5</f>
+        <v>0.0736</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">F6-F5</f>
+        <v>-0.00439999999999996</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">(B6-B5)/(A6-A5)</f>
+        <v>0.01472</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">(H6-H5)/(A7-A5)</f>
+        <v>-8.79999999999992E-005</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -263,6 +327,22 @@
         <f aca="false">A6*A6*A6*A6</f>
         <v>1500625</v>
       </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">B7-B6</f>
+        <v>0.0692</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">F7-F6</f>
+        <v>-0.00490000000000002</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">(B7-B6)/(A7-A6)</f>
+        <v>0.01384</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">(H7-H6)/(A8-A6)</f>
+        <v>-9.80000000000003E-005</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -284,6 +364,22 @@
         <f aca="false">A7*A7*A7*A7</f>
         <v>2560000</v>
       </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">B8-B7</f>
+        <v>0.0643</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">F8-F7</f>
+        <v>-0.00540000000000007</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">(B8-B7)/(A8-A7)</f>
+        <v>0.01286</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">(H8-H7)/(A9-A7)</f>
+        <v>-0.000108000000000002</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -305,6 +401,22 @@
         <f aca="false">A8*A8*A8*A8</f>
         <v>4100625</v>
       </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">B9-B8</f>
+        <v>0.0589</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">F9-F8</f>
+        <v>-0.00569999999999993</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">(B9-B8)/(A9-A8)</f>
+        <v>0.01178</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">(H9-H8)/(A10-A8)</f>
+        <v>-0.000113999999999998</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -325,6 +437,14 @@
       <c r="E9" s="0" t="n">
         <f aca="false">A9*A9*A9*A9</f>
         <v>6250000</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">B10-B9</f>
+        <v>0.0532</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">(B10-B9)/(A10-A9)</f>
+        <v>0.01064</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
